--- a/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pierr\Projects\P4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044B5F50-D178-48AF-982D-5A2D15D68DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19BD5CF-D781-496C-9A60-B378F2810BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="16200" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>Categorie</t>
   </si>
@@ -196,9 +196,6 @@
     <t>?? Liens morts</t>
   </si>
   <si>
-    <t>Pas de footer/header persistent ni de bouton "revenir en haut"</t>
-  </si>
-  <si>
     <t>?? Pas de sitemap</t>
   </si>
   <si>
@@ -242,6 +239,15 @@
   </si>
   <si>
     <t>https://achecker.ca/checker/index.php</t>
+  </si>
+  <si>
+    <t>Paris=&gt;Lyon</t>
+  </si>
+  <si>
+    <t>SEO + ACCESSIBILITE</t>
+  </si>
+  <si>
+    <t>Retirer le texte invisible</t>
   </si>
 </sst>
 </file>
@@ -277,7 +283,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +294,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -311,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,6 +343,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -538,15 +566,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="65.77734375" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="145.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.77734375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
@@ -592,23 +620,23 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -617,49 +645,49 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -685,10 +713,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
         <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -696,87 +724,75 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:26" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:26" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:26" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" s="7" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -784,16 +800,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -801,16 +820,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -818,30 +837,39 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>49</v>
@@ -872,18 +900,22 @@
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
